--- a/pred_ohlcv/54_21/2020-01-11 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BCD ohlcv.xlsx
@@ -6944,7 +6944,7 @@
         <v>-148408.9063234001</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-163297.2642243101</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-163295.9642243102</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-169443.2464243101</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-169441.9464243102</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-174292.8501243101</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-174793.1414243102</v>
       </c>
       <c r="H353">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-195858.1478243102</v>
       </c>
       <c r="H354">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-187980.6799243102</v>
       </c>
       <c r="H355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-186551.5437243102</v>
       </c>
       <c r="H356">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-186680.8436243102</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-188634.9501243102</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-185135.4165087102</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-183545.5734087102</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-183543.5734087102</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-184167.5470087102</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-186948.3618087102</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-186595.3618087102</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-184044.6464595502</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-181738.9626595502</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-181738.9626595502</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-182009.0413595502</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-181781.1524595502</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-153458.5142595502</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-119741.2413579402</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-120826.3146579402</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-106569.8088263002</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-113073.8302996602</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-109717.1223996602</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-102801.1040996602</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-104700.6499996602</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-101530.8798996602</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-97669.61319966021</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-101620.9081996602</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-101624.1231996602</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-102321.8701996602</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-102569.8920996602</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-112239.3248996602</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-123598.4952996602</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-121634.0674996602</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-122752.3982996602</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-117246.1741996602</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-117244.9481996602</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-117409.0481996602</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-115353.8596996602</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-113909.4776996602</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-114476.8369996602</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-113436.8369996602</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-113050.2938996602</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-114280.9696996602</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-114160.1670996602</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-109054.7638996602</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-109722.1565996602</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-89923.59699966019</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-89950.93829966019</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-90000.07209966019</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-90080.3295996602</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-85187.5389996602</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-71548.42969966021</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-52848.53089966021</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-21982.06869966021</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-10408.10279966021</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-21559.65589966021</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-8600.82369966021</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-17431.39137969021</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-22179.55907969021</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27872.13127969021</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-25639.59047969021</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-24433.44367816021</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-30135.50077816021</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-30442.82497816021</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H485">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-31098.66877816021</v>
       </c>
       <c r="H487">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-22495.88117816021</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-20586.9424781602</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-23658.3803781602</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-24323.4288781602</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-23166.1139781602</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-28254.03927816021</v>
       </c>
       <c r="H504">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-26616.28247816021</v>
       </c>
       <c r="H505">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-25707.12567816021</v>
       </c>
       <c r="H509">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 BCD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 BCD ohlcv.xlsx
@@ -6944,7 +6944,7 @@
         <v>-148408.9063234001</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-160739.1118243102</v>
       </c>
       <c r="H347">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-163297.2642243101</v>
       </c>
       <c r="H348">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-163295.9642243102</v>
       </c>
       <c r="H349">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-169443.2464243101</v>
       </c>
       <c r="H350">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-169441.9464243102</v>
       </c>
       <c r="H351">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-174292.8501243101</v>
       </c>
       <c r="H352">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-174793.1414243102</v>
       </c>
       <c r="H353">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-195858.1478243102</v>
       </c>
       <c r="H354">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -9622,7 +9622,7 @@
         <v>-187980.6799243102</v>
       </c>
       <c r="H355">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -9648,7 +9648,7 @@
         <v>-186551.5437243102</v>
       </c>
       <c r="H356">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>-186680.8436243102</v>
       </c>
       <c r="H357">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>-188054.2556243102</v>
       </c>
       <c r="H359">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>-188634.9501243102</v>
       </c>
       <c r="H361">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-185135.4165087102</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-183545.5734087102</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-183543.5734087102</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-184167.5470087102</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-186948.3618087102</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-186595.3618087102</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-184106.6553026502</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-183348.4890595502</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-183957.3577595502</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-183427.1966595502</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-183439.7833595502</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-183211.0333595502</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-183208.0333595502</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-184726.8898595502</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-184722.8898595502</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-184982.8898595502</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-184757.8223595502</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-119741.2413579402</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-121456.3146579402</v>
       </c>
       <c r="H419">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-120826.3146579402</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-106569.8088263002</v>
       </c>
       <c r="H421">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-113073.8302996602</v>
       </c>
       <c r="H422">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-109717.1223996602</v>
       </c>
       <c r="H423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-102801.1040996602</v>
       </c>
       <c r="H424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-105123.0499996602</v>
       </c>
       <c r="H426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-104700.6499996602</v>
       </c>
       <c r="H427">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-101530.8798996602</v>
       </c>
       <c r="H428">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-97669.61319966021</v>
       </c>
       <c r="H429">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-101620.9081996602</v>
       </c>
       <c r="H430">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-101624.1231996602</v>
       </c>
       <c r="H431">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-102321.8701996602</v>
       </c>
       <c r="H432">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-102569.8920996602</v>
       </c>
       <c r="H433">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-112239.3248996602</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-123598.4952996602</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-121634.0674996602</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-122752.3982996602</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-117246.1741996602</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-117244.9481996602</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-117409.0481996602</v>
       </c>
       <c r="H440">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H441">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-115330.3596996602</v>
       </c>
       <c r="H442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H443">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-115536.3596996602</v>
       </c>
       <c r="H444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-115353.8596996602</v>
       </c>
       <c r="H445">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-113909.4776996602</v>
       </c>
       <c r="H446">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-114476.8369996602</v>
       </c>
       <c r="H447">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-113436.8369996602</v>
       </c>
       <c r="H448">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-113050.2938996602</v>
       </c>
       <c r="H449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-114058.9910996602</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-114280.9696996602</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-114167.5763996602</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-114160.1670996602</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-109054.7638996602</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-109722.1565996602</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-89923.59699966019</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-89950.93829966019</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-90000.07209966019</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-89996.55959966019</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-90080.3295996602</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-85187.5389996602</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-71548.42969966021</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-52848.53089966021</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-21982.06869966021</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-12083.61719966021</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-10408.10279966021</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-21559.65589966021</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-8600.82369966021</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-11569.28189966021</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-17431.39137969021</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-22179.55907969021</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-27872.13127969021</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-25639.59047969021</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-26104.78207816021</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-24433.44367816021</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-30135.50077816021</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-30442.82497816021</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-30836.16787816021</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-31098.66877816021</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-31748.20157816021</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-31940.49757816021</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-23318.5206781602</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
